--- a/biology/Zoologie/Pierre_Barrère/Pierre_Barrère.xlsx
+++ b/biology/Zoologie/Pierre_Barrère/Pierre_Barrère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Barr%C3%A8re</t>
+          <t>Pierre_Barrère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Barrère, né vers 1690 à Perpignan (Roussillon) et mort le 1er novembre 1755 à Perpignan, est un naturaliste et un médecin français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Barrère, né vers 1690 à Perpignan (Roussillon) et mort le 1er novembre 1755 à Perpignan, est un naturaliste et un médecin français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Barr%C3%A8re</t>
+          <t>Pierre_Barrère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Barrère étudie la médecine à l'université de Perpignan et est reçu docteur en 1717. Passionné de botanique, il se met alors à voyager et devient le premier naturaliste envoyé par l'Etat pour étudier la Guyane. Antoine de Jussieu, professeur au Jardin du Roi, le propose en effet au Conseil de Marine, qui le désigne en août 1721.  Pourvu du titre de "botaniste du roi à Cayenne"[2], en 1722, il est donc envoyé à Cayenne en Guyane où il passe presque trois ans. Revenu en France, il obtient en 1727 une chaire de botanique à Perpignan et reprend en parallèle son activité de médecin[1] à l'hôpital militaire[3].
-En 1749, il contribue un essai au concours sur la noirceur à l'Académie Royale des Sciences de Bordeaux, ce qui deviendra par la suite sa "Dissertation sur la couleur des nègres". Il est nommé premier médecin de la province du Roussillon en 1753 et reçoit le décanat de la faculté de Perpignan quelques mois avant sa mort[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Barrère étudie la médecine à l'université de Perpignan et est reçu docteur en 1717. Passionné de botanique, il se met alors à voyager et devient le premier naturaliste envoyé par l'Etat pour étudier la Guyane. Antoine de Jussieu, professeur au Jardin du Roi, le propose en effet au Conseil de Marine, qui le désigne en août 1721.  Pourvu du titre de "botaniste du roi à Cayenne", en 1722, il est donc envoyé à Cayenne en Guyane où il passe presque trois ans. Revenu en France, il obtient en 1727 une chaire de botanique à Perpignan et reprend en parallèle son activité de médecin à l'hôpital militaire.
+En 1749, il contribue un essai au concours sur la noirceur à l'Académie Royale des Sciences de Bordeaux, ce qui deviendra par la suite sa "Dissertation sur la couleur des nègres". Il est nommé premier médecin de la province du Roussillon en 1753 et reçoit le décanat de la faculté de Perpignan quelques mois avant sa mort.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Barr%C3%A8re</t>
+          <t>Pierre_Barrère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ornithologie
-Barrère fait paraître en 1745 son Ornithologiae Specimen Novum, sive Series Avium in Ruscinone, Pyrenaeis Montibus, atque in Galliâ Aequinoctiali Observatarum, in Classes, genera &amp; species, novâ methodo, digesta à Perpignan.
+          <t>Ornithologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barrère fait paraître en 1745 son Ornithologiae Specimen Novum, sive Series Avium in Ruscinone, Pyrenaeis Montibus, atque in Galliâ Aequinoctiali Observatarum, in Classes, genera &amp; species, novâ methodo, digesta à Perpignan.
 Sa classification, entièrement basée sur la forme du bec et du pied, est divisée en quatre groupes : les palmipèdes, les demi-palmipèdes, les fissipèdes et les demi-fissipèdes. À l'intérieur de ces groupes, il n'y a aucun classement et les genres et les espèces sont plus ou moins dans le désordre. Sa classification est très artificielle et sera vite abandonnée. Il dédicace son travail à Buffon.
-Médecine
-Il fait paraître ses Observations anatomiques tirées des ouvertures d’un grand nombre de cadavres en 1753 à Perpignan.
-Fossiles
-Il fait paraître en 1746 ses Observations sur l'origine et la formation des pierres figurées, et sur celles qui, tant extérieurement qu'intérieurement, ont une figure régulière &amp; déterminée à Paris. Il s'intéresse à l'origine et à la constitution des fossiles et en décrit plusieurs de Catalogne et du massif pyrénéen. Il suppose que les fossiles de coquillages trouvés dans les Alpes prouvent la présence ancienne d'un océan.
-Récit de voyage
-Barrère fait paraître plusieurs ouvrages à la suite de son expérience en Guyane[4],[5].
 </t>
         </is>
       </c>
@@ -564,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Barr%C3%A8re</t>
+          <t>Pierre_Barrère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +592,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait paraître ses Observations anatomiques tirées des ouvertures d’un grand nombre de cadavres en 1753 à Perpignan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Barrère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Barr%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait paraître en 1746 ses Observations sur l'origine et la formation des pierres figurées, et sur celles qui, tant extérieurement qu'intérieurement, ont une figure régulière &amp; déterminée à Paris. Il s'intéresse à l'origine et à la constitution des fossiles et en décrit plusieurs de Catalogne et du massif pyrénéen. Il suppose que les fossiles de coquillages trouvés dans les Alpes prouvent la présence ancienne d'un océan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Barrère</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Barr%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récit de voyage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barrère fait paraître plusieurs ouvrages à la suite de son expérience en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Barrère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Barr%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Ouvrages (liste partielle)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Essai sur l'histoire naturelle de la France équinoxiale : ou Dénombrement des plantes, des animaux, &amp; des minéraux, qui se trouvent dans l'isle de Cayenne, les isles de Remire, sur les côtes de la mer, &amp; dans le continent de la Guyane : avec leurs noms différens, latins, françois, et indiens, et quelques observations sur leur usage dans la médecine &amp; dans les arts, Paris, Piget, 1741, 215 p. (lire en ligne)
 Nouvelle relation de la France equinoxiale : contenant la description des côtes de la Guiane ; de l'isle de Cayenne ; le commerce de cette colonie ; les divers changemens arrivés dans ce pays ; &amp; les mœurs &amp; coûtumes des différens peuples sauvages qui l'habitent : avec des figures dessinées sur les lieux, Paris, 1743, 250 p. (lire en ligne)
